--- a/Remises/Remise 3/GestionRisques.xlsx
+++ b/Remises/Remise 3/GestionRisques.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7104"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -85,15 +85,6 @@
     <t>Brancher la batterie suffisamment longtemps avant l'essai pour la recharger correctement</t>
   </si>
   <si>
-    <t>Échec de connection au serveur des îles</t>
-  </si>
-  <si>
-    <t>Impossibilité de recevoir la description de l'île mystère</t>
-  </si>
-  <si>
-    <t>Possiblité d'assurer une routine de tentatives de connections suite à un échec</t>
-  </si>
-  <si>
     <t>JM. Provencher</t>
   </si>
   <si>
@@ -162,6 +153,15 @@
   </si>
   <si>
     <t>Possibilité d'ajuster la vitesse de mouvement du préhenseur. Possibilité d'ajuster la taille du réceptacle du trésor</t>
+  </si>
+  <si>
+    <t>Possiblité d'assurer une routine de tentatives de connexions suite à un échec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Échec de connexion au serveur </t>
+  </si>
+  <si>
+    <t>Impossibilité de communiquer avec le robot</t>
   </si>
 </sst>
 </file>
@@ -273,6 +273,24 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -281,24 +299,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,40 +624,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="2:9" ht="72.599999999999994" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -677,7 +677,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>12</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>15</v>
@@ -733,13 +733,13 @@
     </row>
     <row r="7" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -749,21 +749,21 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -773,7 +773,7 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>8</v>
@@ -781,139 +781,139 @@
     </row>
     <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3">
         <v>0.05</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" s="6">
         <v>0.1</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>39</v>
+      <c r="B11" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>41</v>
+      <c r="D11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="6">
         <v>0.15</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12" t="s">
-        <v>46</v>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="14">
-        <v>3</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="5"/>
